--- a/Cobras e Escadas.xlsx
+++ b/Cobras e Escadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Documents\Facul\8º Semestre\Engenharia de Software II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55300E1-52B6-44EC-8471-5ABB90F52504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0320019C-0604-4733-974B-91886E2CB036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E166ED89-6562-4373-A416-CC4B8503D8FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E166ED89-6562-4373-A416-CC4B8503D8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
   <si>
     <t>CRONOGRAMA DO PROJETO</t>
   </si>
@@ -205,9 +205,6 @@
     <t>~4 hrs totais</t>
   </si>
   <si>
-    <t>Testes em andamento</t>
-  </si>
-  <si>
     <t>v3.0.1 lançada</t>
   </si>
   <si>
@@ -221,6 +218,18 @@
   </si>
   <si>
     <t>~23 hrs totais</t>
+  </si>
+  <si>
+    <t>5 testes</t>
+  </si>
+  <si>
+    <t>9 testes</t>
+  </si>
+  <si>
+    <t>6 testes</t>
+  </si>
+  <si>
+    <t>4 testes</t>
   </si>
 </sst>
 </file>
@@ -3207,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AFFEE5-8582-413D-8F6B-A46E1C89D61E}">
   <dimension ref="A2:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4505,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B82DE1-3B53-4BAA-95AB-D1030F9FC269}">
   <dimension ref="B2:O43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4634,7 +4643,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -4677,7 +4686,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5"/>
       <c r="L12" s="6"/>
@@ -4694,7 +4703,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5"/>
       <c r="L13" s="6"/>
@@ -4721,7 +4730,7 @@
         <v>49</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G15" s="5"/>
       <c r="L15" s="6"/>
@@ -4738,7 +4747,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -4753,7 +4762,9 @@
       <c r="E17" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="45" t="s">
+        <v>62</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
@@ -4767,7 +4778,9 @@
       <c r="E18" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="45" t="s">
+        <v>63</v>
+      </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
@@ -4808,7 +4821,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -4824,7 +4837,7 @@
       </c>
       <c r="E22" s="110"/>
       <c r="F22" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="5"/>
     </row>
